--- a/娱乐/游戏.xlsx
+++ b/娱乐/游戏.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23805" windowHeight="13860"/>
+    <workbookView windowWidth="29865" windowHeight="13860" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="角色扮演" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="253">
   <si>
     <t>发售日期</t>
   </si>
@@ -176,6 +176,15 @@
     <t>《艾尔登法环》</t>
   </si>
   <si>
+    <t>2022-11-15</t>
+  </si>
+  <si>
+    <t>《隐迹渐现》</t>
+  </si>
+  <si>
+    <t>黑曜石娱乐</t>
+  </si>
+  <si>
     <t>2023-08-01</t>
   </si>
   <si>
@@ -762,6 +771,15 @@
   </si>
   <si>
     <t>生存沙盒</t>
+  </si>
+  <si>
+    <t>2017-04-25</t>
+  </si>
+  <si>
+    <t>《艾迪芬奇的记忆》</t>
+  </si>
+  <si>
+    <t>Giant Sparrow</t>
   </si>
   <si>
     <t>2018-12-07</t>
@@ -783,7 +801,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -801,6 +819,12 @@
       <b/>
       <sz val="18"/>
       <color theme="5"/>
+      <name val="楷体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="楷体"/>
       <charset val="134"/>
     </font>
@@ -1296,137 +1320,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1451,14 +1475,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1771,10 +1798,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C25 C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1986,34 +2013,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="5" t="s">
+    <row r="13" ht="14.25" spans="1:5">
+      <c r="A13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>51</v>
-      </c>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2032,24 +2057,34 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="3:5">
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
     </row>
     <row r="18" spans="3:5">
       <c r="C18"/>
@@ -2060,6 +2095,15 @@
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22"/>
+      <c r="E22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2105,346 +2149,346 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E24" s="6"/>
     </row>
@@ -2512,28 +2556,28 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>27</v>
@@ -2542,26 +2586,26 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>27</v>
@@ -2570,10 +2614,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
@@ -2583,10 +2627,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="s">
@@ -2596,40 +2640,40 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
@@ -2639,13 +2683,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>27</v>
@@ -2654,27 +2698,27 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="7" t="s">
@@ -2684,28 +2728,28 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>27</v>
@@ -2714,13 +2758,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>27</v>
@@ -2729,41 +2773,41 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>27</v>
@@ -2772,41 +2816,41 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>27</v>
@@ -2815,54 +2859,54 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>27</v>
@@ -2899,10 +2943,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2933,124 +2977,131 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>238</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="6" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="3:5">
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-    </row>
-    <row r="10" spans="3:5">
-      <c r="C10"/>
+    <row r="8" ht="14.25" spans="1:5">
+      <c r="A8" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5">
       <c r="D10"/>
       <c r="E10"/>
     </row>
@@ -3063,6 +3114,10 @@
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
+    </row>
+    <row r="13" spans="4:5">
+      <c r="D13"/>
+      <c r="E13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/娱乐/游戏.xlsx
+++ b/娱乐/游戏.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29865" windowHeight="13860" activeTab="3"/>
+    <workbookView windowHeight="16215"/>
   </bookViews>
   <sheets>
     <sheet name="角色扮演" sheetId="1" r:id="rId1"/>
-    <sheet name="动作冒险" sheetId="2" r:id="rId2"/>
-    <sheet name="恐怖游戏" sheetId="3" r:id="rId3"/>
+    <sheet name="恐怖游戏" sheetId="3" r:id="rId2"/>
+    <sheet name="动作冒险" sheetId="2" r:id="rId3"/>
     <sheet name="其他游戏" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="264">
   <si>
     <t>发售日期</t>
   </si>
@@ -47,6 +47,9 @@
     <t>游戏标签</t>
   </si>
   <si>
+    <t>全成就</t>
+  </si>
+  <si>
     <t>2011-09-02</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
     <t>类魂</t>
   </si>
   <si>
+    <t>2022-05-20</t>
+  </si>
+  <si>
     <t>2014-03-11</t>
   </si>
   <si>
@@ -71,6 +77,9 @@
     <t>《深渊之王的王冠》《铁之古王的王冠》《白王的王冠》</t>
   </si>
   <si>
+    <t>2024-04-14</t>
+  </si>
+  <si>
     <t>2015-03-24</t>
   </si>
   <si>
@@ -95,6 +104,9 @@
     <t>剧情向</t>
   </si>
   <si>
+    <t>2024-05-07</t>
+  </si>
+  <si>
     <t>2016-03-24</t>
   </si>
   <si>
@@ -104,7 +116,10 @@
     <t>《艾雷德尔之烬》《环印城》</t>
   </si>
   <si>
-    <t>2018-01-26</t>
+    <t>2022-05-27</t>
+  </si>
+  <si>
+    <t>2018-08-10</t>
   </si>
   <si>
     <t>《怪物猎人：世界》</t>
@@ -131,6 +146,9 @@
     <t>类银河恶魔城</t>
   </si>
   <si>
+    <t>2022-12-14</t>
+  </si>
+  <si>
     <t>2019-09-13</t>
   </si>
   <si>
@@ -146,19 +164,7 @@
     <t>刷宝</t>
   </si>
   <si>
-    <t>2019-11-15</t>
-  </si>
-  <si>
-    <t>《宝可梦 剑·盾》</t>
-  </si>
-  <si>
-    <t>《铠之孤岛》《冠之雪原》</t>
-  </si>
-  <si>
-    <t>GAME FREAK</t>
-  </si>
-  <si>
-    <t>JRPG</t>
+    <t>2024-04-12</t>
   </si>
   <si>
     <t>2020-12-10</t>
@@ -170,12 +176,645 @@
     <t>《往日之影》</t>
   </si>
   <si>
+    <t>2024-04-18</t>
+  </si>
+  <si>
     <t>2022-02-25</t>
   </si>
   <si>
     <t>《艾尔登法环》</t>
   </si>
   <si>
+    <t>2022-04-30</t>
+  </si>
+  <si>
+    <t>2023-08-01</t>
+  </si>
+  <si>
+    <t>《博德之门3》</t>
+  </si>
+  <si>
+    <t>拉瑞安</t>
+  </si>
+  <si>
+    <t>CRPG</t>
+  </si>
+  <si>
+    <t>2024-05-18</t>
+  </si>
+  <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
+    <t>《匹诺曹的谎言》</t>
+  </si>
+  <si>
+    <t>NEOWIZ</t>
+  </si>
+  <si>
+    <t>2024-05-19</t>
+  </si>
+  <si>
+    <t>2023-10-13</t>
+  </si>
+  <si>
+    <t>《堕落之主》</t>
+  </si>
+  <si>
+    <t>HEXWORKS</t>
+  </si>
+  <si>
+    <t>2024-02-01</t>
+  </si>
+  <si>
+    <t>《碧蓝幻想：RELINK》</t>
+  </si>
+  <si>
+    <t>2001-09-24</t>
+  </si>
+  <si>
+    <t>《寂静岭2》</t>
+  </si>
+  <si>
+    <t>《最期之诗》</t>
+  </si>
+  <si>
+    <t>科乐美</t>
+  </si>
+  <si>
+    <t>无成就</t>
+  </si>
+  <si>
+    <t>2004-06-07</t>
+  </si>
+  <si>
+    <t>《生化危机4》</t>
+  </si>
+  <si>
+    <t>《艾达主线》《艾达特工》</t>
+  </si>
+  <si>
+    <t>2004-06-17</t>
+  </si>
+  <si>
+    <t>《寂静岭4》</t>
+  </si>
+  <si>
+    <t>2009-03-05</t>
+  </si>
+  <si>
+    <t>《生化危机5》</t>
+  </si>
+  <si>
+    <t>《迷失噩梦》《绝望逃亡》</t>
+  </si>
+  <si>
+    <t>2012-01-26</t>
+  </si>
+  <si>
+    <t>《生化危机：启示录》</t>
+  </si>
+  <si>
+    <t>2012-10-02</t>
+  </si>
+  <si>
+    <t>《生化危机6》</t>
+  </si>
+  <si>
+    <t>2013-09-04</t>
+  </si>
+  <si>
+    <t>《逃生》</t>
+  </si>
+  <si>
+    <t>《告密者》</t>
+  </si>
+  <si>
+    <t>Red Barrels</t>
+  </si>
+  <si>
+    <t>2014-10-14</t>
+  </si>
+  <si>
+    <t>《恶灵附身》</t>
+  </si>
+  <si>
+    <t>《恶灵附身2》</t>
+  </si>
+  <si>
+    <t>Tango Gameworks</t>
+  </si>
+  <si>
+    <t>2015-01-20</t>
+  </si>
+  <si>
+    <t>《生化危机：高清修复版》</t>
+  </si>
+  <si>
+    <t>2021-06-06</t>
+  </si>
+  <si>
+    <t>2015-01-24</t>
+  </si>
+  <si>
+    <t>《生化危机：启示录2》</t>
+  </si>
+  <si>
+    <t>《小女人》《斗争》</t>
+  </si>
+  <si>
+    <t>2015-08-25</t>
+  </si>
+  <si>
+    <t>《直到黎明》</t>
+  </si>
+  <si>
+    <t>《采石场惊魂》</t>
+  </si>
+  <si>
+    <t>Supermassive Games</t>
+  </si>
+  <si>
+    <t>互动电影</t>
+  </si>
+  <si>
+    <t>2016-01-21</t>
+  </si>
+  <si>
+    <t>《生化危机0：高清修复版》</t>
+  </si>
+  <si>
+    <t>2016-02-16</t>
+  </si>
+  <si>
+    <t>《层层恐惧》</t>
+  </si>
+  <si>
+    <t>《遗产》</t>
+  </si>
+  <si>
+    <t>Bloober Team</t>
+  </si>
+  <si>
+    <t>2017-01-24</t>
+  </si>
+  <si>
+    <t>《生化危机7》</t>
+  </si>
+  <si>
+    <t>《禁止播放的影片 Vol.1》《禁止播放的影片Vol.2》《佐伊的结局》《不是英雄》</t>
+  </si>
+  <si>
+    <t>2019-01-25</t>
+  </si>
+  <si>
+    <t>《生化危机2：重制版》</t>
+  </si>
+  <si>
+    <t>《生化危机2》《生化危机：代号维罗妮卡》</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>2019-04-19</t>
+  </si>
+  <si>
+    <t>《纸人》</t>
+  </si>
+  <si>
+    <t>《纸人贰》</t>
+  </si>
+  <si>
+    <t>LITCHI GAME</t>
+  </si>
+  <si>
+    <t>2019-05-29</t>
+  </si>
+  <si>
+    <t>《层层恐惧2》</t>
+  </si>
+  <si>
+    <t>2020-04-03</t>
+  </si>
+  <si>
+    <t>《生化危机3：重制版》</t>
+  </si>
+  <si>
+    <t>《生化危机3》</t>
+  </si>
+  <si>
+    <t>2021-01-28</t>
+  </si>
+  <si>
+    <t>《灵媒》</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>《烟火》</t>
+  </si>
+  <si>
+    <t>《三伏》</t>
+  </si>
+  <si>
+    <t>拾英工作室</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>《生化危机：村庄》</t>
+  </si>
+  <si>
+    <t>《温特斯家的传续》</t>
+  </si>
+  <si>
+    <t>2022-11-18</t>
+  </si>
+  <si>
+    <t>2021-07-22</t>
+  </si>
+  <si>
+    <t>《蛊婆》</t>
+  </si>
+  <si>
+    <t>青岛魔娱</t>
+  </si>
+  <si>
+    <t>2022-08-25</t>
+  </si>
+  <si>
+    <t>《女鬼桥：开魂路》</t>
+  </si>
+  <si>
+    <t>《女鬼桥2：释魂路》</t>
+  </si>
+  <si>
+    <t>大宇资讯</t>
+  </si>
+  <si>
+    <t>2022-08-29</t>
+  </si>
+  <si>
+    <t>2023-01-28</t>
+  </si>
+  <si>
+    <t>《死亡空间：重制版》</t>
+  </si>
+  <si>
+    <t>Motive</t>
+  </si>
+  <si>
+    <t>2023-03-24</t>
+  </si>
+  <si>
+    <t>《生化危机4：重制版》</t>
+  </si>
+  <si>
+    <t>《逆命殊途》</t>
+  </si>
+  <si>
+    <t>2007-08-21</t>
+  </si>
+  <si>
+    <t>《生化奇兵》</t>
+  </si>
+  <si>
+    <t>“无理性”制作室</t>
+  </si>
+  <si>
+    <t>2008-01-31</t>
+  </si>
+  <si>
+    <t>《鬼泣4》</t>
+  </si>
+  <si>
+    <t>《鬼泣5》</t>
+  </si>
+  <si>
+    <t>ACT</t>
+  </si>
+  <si>
+    <t>2009-10-29</t>
+  </si>
+  <si>
+    <t>《猎天使魔女》</t>
+  </si>
+  <si>
+    <t>白金工作室</t>
+  </si>
+  <si>
+    <t>2010-02-09</t>
+  </si>
+  <si>
+    <t>《生化奇兵2》</t>
+  </si>
+  <si>
+    <t>《密涅瓦之室》</t>
+  </si>
+  <si>
+    <t>2010-05-14</t>
+  </si>
+  <si>
+    <t>《心灵杀手》</t>
+  </si>
+  <si>
+    <t>《信号》《作家》</t>
+  </si>
+  <si>
+    <t>绿美迪</t>
+  </si>
+  <si>
+    <t>2013-01-15</t>
+  </si>
+  <si>
+    <t>《DmC：鬼泣》</t>
+  </si>
+  <si>
+    <t>《维吉尔的陨落》</t>
+  </si>
+  <si>
+    <t>Ninja Theory</t>
+  </si>
+  <si>
+    <t>2013-03-05</t>
+  </si>
+  <si>
+    <t>《古墓丽影》</t>
+  </si>
+  <si>
+    <t>《古墓丽影：崛起》《古墓丽影：暗影》</t>
+  </si>
+  <si>
+    <t>晶体动力工作室</t>
+  </si>
+  <si>
+    <t>2013-03-26</t>
+  </si>
+  <si>
+    <t>《生化奇兵：无限》</t>
+  </si>
+  <si>
+    <t>《海葬一》《海葬二》</t>
+  </si>
+  <si>
+    <t>2013-06-14</t>
+  </si>
+  <si>
+    <t>《最后生还者》</t>
+  </si>
+  <si>
+    <t>《遗落》《最后生还者2》</t>
+  </si>
+  <si>
+    <t>顽皮狗</t>
+  </si>
+  <si>
+    <t>2015-03-11</t>
+  </si>
+  <si>
+    <t>《奥日与黑暗森林》</t>
+  </si>
+  <si>
+    <t>《决定版》</t>
+  </si>
+  <si>
+    <t>月亮工作室</t>
+  </si>
+  <si>
+    <t>类银河战士恶魔城</t>
+  </si>
+  <si>
+    <t>2016-05-10</t>
+  </si>
+  <si>
+    <t>《神秘海域4：盗贼末路》</t>
+  </si>
+  <si>
+    <t>《失落的遗产》《神秘海域：德雷克合集》</t>
+  </si>
+  <si>
+    <t>2016-10-28</t>
+  </si>
+  <si>
+    <t>《泰坦陨落2》</t>
+  </si>
+  <si>
+    <t>重生娱乐</t>
+  </si>
+  <si>
+    <t>2017-02-25</t>
+  </si>
+  <si>
+    <t>《空洞骑士》</t>
+  </si>
+  <si>
+    <t>《格林教团》《神居》</t>
+  </si>
+  <si>
+    <t>樱桃工作室</t>
+  </si>
+  <si>
+    <t>类魂、类银河战士恶魔城</t>
+  </si>
+  <si>
+    <t>2017-03-03</t>
+  </si>
+  <si>
+    <t>《塞尔达传说 旷野之息》</t>
+  </si>
+  <si>
+    <t>《试练的霸者》《英杰们的诗篇》</t>
+  </si>
+  <si>
+    <t>任天堂</t>
+  </si>
+  <si>
+    <t>2018-01-25</t>
+  </si>
+  <si>
+    <t>《蔚蓝》</t>
+  </si>
+  <si>
+    <t>《第九章》</t>
+  </si>
+  <si>
+    <t>Matt Makes</t>
+  </si>
+  <si>
+    <t>平台跳跃</t>
+  </si>
+  <si>
+    <t>2018-03-13</t>
+  </si>
+  <si>
+    <t>《鬼泣：HD合集》</t>
+  </si>
+  <si>
+    <t>2018-04-20</t>
+  </si>
+  <si>
+    <t>《战神》</t>
+  </si>
+  <si>
+    <t>圣莫妮卡工作室</t>
+  </si>
+  <si>
+    <t>2018-09-07</t>
+  </si>
+  <si>
+    <t>《漫威蜘蛛侠》</t>
+  </si>
+  <si>
+    <t>《不夜城》</t>
+  </si>
+  <si>
+    <t>Insomniac Games</t>
+  </si>
+  <si>
+    <t>2019-05-15</t>
+  </si>
+  <si>
+    <t>《瘟疫传说：无罪》</t>
+  </si>
+  <si>
+    <t>《瘟疫传说：安魂曲》</t>
+  </si>
+  <si>
+    <t>Asobo Studio</t>
+  </si>
+  <si>
+    <t>2019-08-27</t>
+  </si>
+  <si>
+    <t>《控制》</t>
+  </si>
+  <si>
+    <t>《AWE》《地基》</t>
+  </si>
+  <si>
+    <t>2020-03-11</t>
+  </si>
+  <si>
+    <t>《精灵与萤火意志》</t>
+  </si>
+  <si>
+    <t>2021-09-21</t>
+  </si>
+  <si>
+    <t>《柯娜：精神之桥》</t>
+  </si>
+  <si>
+    <t>Ember Lab</t>
+  </si>
+  <si>
+    <t>2023-10-27</t>
+  </si>
+  <si>
+    <t>《心灵杀手2》</t>
+  </si>
+  <si>
+    <t>2002-07-03</t>
+  </si>
+  <si>
+    <t>《魔兽争霸Ⅲ：混乱之治》</t>
+  </si>
+  <si>
+    <t>《冰封王座》</t>
+  </si>
+  <si>
+    <t>暴雪</t>
+  </si>
+  <si>
+    <t>即时战略</t>
+  </si>
+  <si>
+    <t>2009-05-05</t>
+  </si>
+  <si>
+    <t>《植物大战僵尸》</t>
+  </si>
+  <si>
+    <t>宝开游戏公司</t>
+  </si>
+  <si>
+    <t>塔防</t>
+  </si>
+  <si>
+    <t>2010-02-18</t>
+  </si>
+  <si>
+    <t>《暴雨》</t>
+  </si>
+  <si>
+    <t>《超凡双生》《底特律：我欲为人》</t>
+  </si>
+  <si>
+    <t>Quantic Dream</t>
+  </si>
+  <si>
+    <t>2011-04-19</t>
+  </si>
+  <si>
+    <t>《传送门2》</t>
+  </si>
+  <si>
+    <t>《传送门》</t>
+  </si>
+  <si>
+    <t>Valve Software</t>
+  </si>
+  <si>
+    <t>解谜</t>
+  </si>
+  <si>
+    <t>2016-03-25</t>
+  </si>
+  <si>
+    <t>《银河历险记3》</t>
+  </si>
+  <si>
+    <t>《银河历险记》《银河历险记2》</t>
+  </si>
+  <si>
+    <t>Amanita Design</t>
+  </si>
+  <si>
+    <t>2016-08-13</t>
+  </si>
+  <si>
+    <t>《无人深空》</t>
+  </si>
+  <si>
+    <t>Hello Games</t>
+  </si>
+  <si>
+    <t>生存沙盒</t>
+  </si>
+  <si>
+    <t>2017-04-25</t>
+  </si>
+  <si>
+    <t>《艾迪芬奇的记忆》</t>
+  </si>
+  <si>
+    <t>Giant Sparrow</t>
+  </si>
+  <si>
+    <t>2018-12-07</t>
+  </si>
+  <si>
+    <t>《任天堂明星大乱斗：特别版》</t>
+  </si>
+  <si>
+    <t>格斗</t>
+  </si>
+  <si>
     <t>2022-11-15</t>
   </si>
   <si>
@@ -183,612 +822,6 @@
   </si>
   <si>
     <t>黑曜石娱乐</t>
-  </si>
-  <si>
-    <t>2023-08-01</t>
-  </si>
-  <si>
-    <t>《博德之门3》</t>
-  </si>
-  <si>
-    <t>拉瑞安</t>
-  </si>
-  <si>
-    <t>CRPG</t>
-  </si>
-  <si>
-    <t>2023-09-18</t>
-  </si>
-  <si>
-    <t>《匹诺曹的谎言》</t>
-  </si>
-  <si>
-    <t>NEOWIZ</t>
-  </si>
-  <si>
-    <t>2023-10-13</t>
-  </si>
-  <si>
-    <t>《堕落之主》</t>
-  </si>
-  <si>
-    <t>HEXWORKS</t>
-  </si>
-  <si>
-    <t>2024-02-01</t>
-  </si>
-  <si>
-    <t>《碧蓝幻想：RELINK》</t>
-  </si>
-  <si>
-    <t>Cygames</t>
-  </si>
-  <si>
-    <t>2007-08-21</t>
-  </si>
-  <si>
-    <t>《生化奇兵》</t>
-  </si>
-  <si>
-    <t>“无理性”制作室</t>
-  </si>
-  <si>
-    <t>2008-01-31</t>
-  </si>
-  <si>
-    <t>《鬼泣4》</t>
-  </si>
-  <si>
-    <t>《鬼泣5》</t>
-  </si>
-  <si>
-    <t>ACT</t>
-  </si>
-  <si>
-    <t>2009-10-29</t>
-  </si>
-  <si>
-    <t>《猎天使魔女》</t>
-  </si>
-  <si>
-    <t>白金工作室</t>
-  </si>
-  <si>
-    <t>2010-02-09</t>
-  </si>
-  <si>
-    <t>《生化奇兵2》</t>
-  </si>
-  <si>
-    <t>《密涅瓦之室》</t>
-  </si>
-  <si>
-    <t>2010-05-14</t>
-  </si>
-  <si>
-    <t>《心灵杀手》</t>
-  </si>
-  <si>
-    <t>《信号》《作家》</t>
-  </si>
-  <si>
-    <t>绿美迪</t>
-  </si>
-  <si>
-    <t>2013-01-15</t>
-  </si>
-  <si>
-    <t>《DmC：鬼泣》</t>
-  </si>
-  <si>
-    <t>《维吉尔的陨落》</t>
-  </si>
-  <si>
-    <t>Ninja Theory</t>
-  </si>
-  <si>
-    <t>2013-03-05</t>
-  </si>
-  <si>
-    <t>《古墓丽影》</t>
-  </si>
-  <si>
-    <t>《古墓丽影：崛起》《古墓丽影：暗影》</t>
-  </si>
-  <si>
-    <t>晶体动力工作室</t>
-  </si>
-  <si>
-    <t>2013-03-26</t>
-  </si>
-  <si>
-    <t>《生化奇兵：无限》</t>
-  </si>
-  <si>
-    <t>《海葬一》《海葬二》</t>
-  </si>
-  <si>
-    <t>2013-06-14</t>
-  </si>
-  <si>
-    <t>《最后生还者》</t>
-  </si>
-  <si>
-    <t>《遗落》《最后生还者2》</t>
-  </si>
-  <si>
-    <t>顽皮狗</t>
-  </si>
-  <si>
-    <t>2015-03-11</t>
-  </si>
-  <si>
-    <t>《奥日与黑暗森林》</t>
-  </si>
-  <si>
-    <t>《决定版》</t>
-  </si>
-  <si>
-    <t>月亮工作室</t>
-  </si>
-  <si>
-    <t>类银河战士恶魔城</t>
-  </si>
-  <si>
-    <t>2016-05-10</t>
-  </si>
-  <si>
-    <t>《神秘海域4：盗贼末路》</t>
-  </si>
-  <si>
-    <t>《失落的遗产》《神秘海域：德雷克合集》</t>
-  </si>
-  <si>
-    <t>2016-10-28</t>
-  </si>
-  <si>
-    <t>《泰坦陨落2》</t>
-  </si>
-  <si>
-    <t>重生娱乐</t>
-  </si>
-  <si>
-    <t>2017-02-25</t>
-  </si>
-  <si>
-    <t>《空洞骑士》</t>
-  </si>
-  <si>
-    <t>《格林教团》《神居》</t>
-  </si>
-  <si>
-    <t>樱桃工作室</t>
-  </si>
-  <si>
-    <t>类魂、类银河战士恶魔城</t>
-  </si>
-  <si>
-    <t>2017-03-03</t>
-  </si>
-  <si>
-    <t>《塞尔达传说 旷野之息》</t>
-  </si>
-  <si>
-    <t>《试练的霸者》《英杰们的诗篇》</t>
-  </si>
-  <si>
-    <t>任天堂</t>
-  </si>
-  <si>
-    <t>2018-01-25</t>
-  </si>
-  <si>
-    <t>《蔚蓝》</t>
-  </si>
-  <si>
-    <t>《第九章》</t>
-  </si>
-  <si>
-    <t>Matt Makes</t>
-  </si>
-  <si>
-    <t>平台跳跃</t>
-  </si>
-  <si>
-    <t>2018-03-13</t>
-  </si>
-  <si>
-    <t>《鬼泣：HD合集》</t>
-  </si>
-  <si>
-    <t>2018-04-20</t>
-  </si>
-  <si>
-    <t>《战神》</t>
-  </si>
-  <si>
-    <t>圣莫妮卡工作室</t>
-  </si>
-  <si>
-    <t>2018-09-07</t>
-  </si>
-  <si>
-    <t>《漫威蜘蛛侠》</t>
-  </si>
-  <si>
-    <t>《不夜城》</t>
-  </si>
-  <si>
-    <t>Insomniac Games</t>
-  </si>
-  <si>
-    <t>2019-05-15</t>
-  </si>
-  <si>
-    <t>《瘟疫传说：无罪》</t>
-  </si>
-  <si>
-    <t>《瘟疫传说：安魂曲》</t>
-  </si>
-  <si>
-    <t>Asobo Studio</t>
-  </si>
-  <si>
-    <t>2019-08-27</t>
-  </si>
-  <si>
-    <t>《控制》</t>
-  </si>
-  <si>
-    <t>《AWE》《地基》</t>
-  </si>
-  <si>
-    <t>2020-03-11</t>
-  </si>
-  <si>
-    <t>《精灵与萤火意志》</t>
-  </si>
-  <si>
-    <t>2021-09-21</t>
-  </si>
-  <si>
-    <t>《柯娜：精神之桥》</t>
-  </si>
-  <si>
-    <t>Ember Lab</t>
-  </si>
-  <si>
-    <t>2023-10-27</t>
-  </si>
-  <si>
-    <t>《心灵杀手2》</t>
-  </si>
-  <si>
-    <t>2001-09-24</t>
-  </si>
-  <si>
-    <t>《寂静岭2》</t>
-  </si>
-  <si>
-    <t>《最期之诗》</t>
-  </si>
-  <si>
-    <t>科乐美</t>
-  </si>
-  <si>
-    <t>2004-06-07</t>
-  </si>
-  <si>
-    <t>《生化危机4》</t>
-  </si>
-  <si>
-    <t>《艾达主线》《艾达特工》</t>
-  </si>
-  <si>
-    <t>2004-06-17</t>
-  </si>
-  <si>
-    <t>《寂静岭4》</t>
-  </si>
-  <si>
-    <t>2009-03-05</t>
-  </si>
-  <si>
-    <t>《生化危机5》</t>
-  </si>
-  <si>
-    <t>《迷失噩梦》《绝望逃亡》</t>
-  </si>
-  <si>
-    <t>2012-01-26</t>
-  </si>
-  <si>
-    <t>《生化危机：启示录》</t>
-  </si>
-  <si>
-    <t>2012-10-02</t>
-  </si>
-  <si>
-    <t>《生化危机6》</t>
-  </si>
-  <si>
-    <t>2013-09-04</t>
-  </si>
-  <si>
-    <t>《逃生》</t>
-  </si>
-  <si>
-    <t>《告密者》</t>
-  </si>
-  <si>
-    <t>Red Barrels</t>
-  </si>
-  <si>
-    <t>2014-10-14</t>
-  </si>
-  <si>
-    <t>《恶灵附身》</t>
-  </si>
-  <si>
-    <t>《恶灵附身2》</t>
-  </si>
-  <si>
-    <t>Tango Gameworks</t>
-  </si>
-  <si>
-    <t>2015-01-20</t>
-  </si>
-  <si>
-    <t>《生化危机：高清修复版》</t>
-  </si>
-  <si>
-    <t>2015-01-24</t>
-  </si>
-  <si>
-    <t>《生化危机：启示录2》</t>
-  </si>
-  <si>
-    <t>《小女人》《斗争》</t>
-  </si>
-  <si>
-    <t>2015-08-25</t>
-  </si>
-  <si>
-    <t>《直到黎明》</t>
-  </si>
-  <si>
-    <t>《采石场惊魂》</t>
-  </si>
-  <si>
-    <t>Supermassive Games</t>
-  </si>
-  <si>
-    <t>互动电影</t>
-  </si>
-  <si>
-    <t>2016-01-21</t>
-  </si>
-  <si>
-    <t>《生化危机0：高清修复版》</t>
-  </si>
-  <si>
-    <t>2016-02-16</t>
-  </si>
-  <si>
-    <t>《层层恐惧》</t>
-  </si>
-  <si>
-    <t>《遗产》</t>
-  </si>
-  <si>
-    <t>Bloober Team</t>
-  </si>
-  <si>
-    <t>2017-01-24</t>
-  </si>
-  <si>
-    <t>《生化危机7》</t>
-  </si>
-  <si>
-    <t>《禁止播放的影片 Vol.1》《禁止播放的影片Vol.2》《佐伊的结局》《不是英雄》</t>
-  </si>
-  <si>
-    <t>2019-01-25</t>
-  </si>
-  <si>
-    <t>《生化危机2：重制版》</t>
-  </si>
-  <si>
-    <t>《生化危机2》《生化危机：代号维罗妮卡》</t>
-  </si>
-  <si>
-    <t>2019-04-19</t>
-  </si>
-  <si>
-    <t>《纸人》</t>
-  </si>
-  <si>
-    <t>《纸人贰》</t>
-  </si>
-  <si>
-    <t>LITCHI GAME</t>
-  </si>
-  <si>
-    <t>2019-05-29</t>
-  </si>
-  <si>
-    <t>《层层恐惧2》</t>
-  </si>
-  <si>
-    <t>2020-04-03</t>
-  </si>
-  <si>
-    <t>《生化危机3：重制版》</t>
-  </si>
-  <si>
-    <t>《生化危机3》</t>
-  </si>
-  <si>
-    <t>2021-01-28</t>
-  </si>
-  <si>
-    <t>《灵媒》</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>《烟火》</t>
-  </si>
-  <si>
-    <t>《三伏》</t>
-  </si>
-  <si>
-    <t>拾英工作室</t>
-  </si>
-  <si>
-    <t>2021-05-07</t>
-  </si>
-  <si>
-    <t>《生化危机：村庄》</t>
-  </si>
-  <si>
-    <t>《温特斯家的传续》</t>
-  </si>
-  <si>
-    <t>2021-07-22</t>
-  </si>
-  <si>
-    <t>《蛊婆》</t>
-  </si>
-  <si>
-    <t>青岛魔娱</t>
-  </si>
-  <si>
-    <t>2022-08-25</t>
-  </si>
-  <si>
-    <t>《女鬼桥：开魂路》</t>
-  </si>
-  <si>
-    <t>《女鬼桥2：释魂路》</t>
-  </si>
-  <si>
-    <t>大宇资讯</t>
-  </si>
-  <si>
-    <t>2023-01-28</t>
-  </si>
-  <si>
-    <t>《死亡空间：重制版》</t>
-  </si>
-  <si>
-    <t>Motive</t>
-  </si>
-  <si>
-    <t>2023-03-24</t>
-  </si>
-  <si>
-    <t>《生化危机4：重制版》</t>
-  </si>
-  <si>
-    <t>《逆命殊途》</t>
-  </si>
-  <si>
-    <t>2002-07-03</t>
-  </si>
-  <si>
-    <t>《魔兽争霸Ⅲ：混乱之治》</t>
-  </si>
-  <si>
-    <t>《冰封王座》</t>
-  </si>
-  <si>
-    <t>暴雪</t>
-  </si>
-  <si>
-    <t>即时战略</t>
-  </si>
-  <si>
-    <t>2009-05-05</t>
-  </si>
-  <si>
-    <t>《植物大战僵尸》</t>
-  </si>
-  <si>
-    <t>宝开游戏公司</t>
-  </si>
-  <si>
-    <t>塔防</t>
-  </si>
-  <si>
-    <t>2010-02-18</t>
-  </si>
-  <si>
-    <t>《暴雨》</t>
-  </si>
-  <si>
-    <t>《超凡双生》《底特律：我欲为人》</t>
-  </si>
-  <si>
-    <t>Quantic Dream</t>
-  </si>
-  <si>
-    <t>2011-04-19</t>
-  </si>
-  <si>
-    <t>《传送门2》</t>
-  </si>
-  <si>
-    <t>《传送门》</t>
-  </si>
-  <si>
-    <t>Valve Software</t>
-  </si>
-  <si>
-    <t>解谜</t>
-  </si>
-  <si>
-    <t>2016-03-25</t>
-  </si>
-  <si>
-    <t>《银河历险记3》</t>
-  </si>
-  <si>
-    <t>《银河历险记》《银河历险记2》</t>
-  </si>
-  <si>
-    <t>Amanita Design</t>
-  </si>
-  <si>
-    <t>2016-08-13</t>
-  </si>
-  <si>
-    <t>《无人深空》</t>
-  </si>
-  <si>
-    <t>Hello Games</t>
-  </si>
-  <si>
-    <t>生存沙盒</t>
-  </si>
-  <si>
-    <t>2017-04-25</t>
-  </si>
-  <si>
-    <t>《艾迪芬奇的记忆》</t>
-  </si>
-  <si>
-    <t>Giant Sparrow</t>
-  </si>
-  <si>
-    <t>2018-12-07</t>
-  </si>
-  <si>
-    <t>《任天堂明星大乱斗：特别版》</t>
-  </si>
-  <si>
-    <t>格斗</t>
   </si>
 </sst>
 </file>
@@ -1450,7 +1483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1486,6 +1519,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1798,22 +1837,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="F20 D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="100.75" style="2" customWidth="1"/>
     <col min="4" max="5" width="27.25" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="17.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:5">
+    <row r="1" ht="22.5" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1829,281 +1869,281 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>43</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>19</v>
+        <v>50</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="7" t="s">
-        <v>8</v>
+      <c r="D12" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:5">
-      <c r="A13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5">
+        <v>55</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
-        <v>57</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5">
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-    </row>
-    <row r="19" spans="3:5">
-      <c r="C19"/>
+        <v>33</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+    </row>
+    <row r="19" spans="4:5">
       <c r="D19"/>
       <c r="E19"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-    </row>
-    <row r="22" spans="4:5">
-      <c r="D22"/>
-      <c r="E22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2115,22 +2155,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="42.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="73.375" style="2" customWidth="1"/>
     <col min="4" max="5" width="27.25" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="17.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:5">
+    <row r="1" ht="22.5" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2146,361 +2187,409 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="D2" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>79</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C6" s="6"/>
       <c r="D6" s="7" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="6" t="s">
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="D11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="5" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="D15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="7" t="s">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E17" s="6"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="B18" s="6" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="5" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="5" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="6" t="s">
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="B22" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="5" t="s">
+      <c r="D22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B21" s="6" t="s">
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="5" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="E23" s="6"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="5" t="s">
+      <c r="E24" s="6"/>
+      <c r="F24" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B24" s="6" t="s">
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="3:5">
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-    </row>
-    <row r="26" spans="3:5">
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
+      <c r="B25" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="3:5">
       <c r="C27"/>
@@ -2511,6 +2600,16 @@
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2522,22 +2621,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="73.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.5" style="2" customWidth="1"/>
     <col min="4" max="5" width="27.25" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:5">
+    <row r="1" ht="22.5" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2553,365 +2653,389 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>146</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C2" s="6"/>
       <c r="D2" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5">
+        <v>158</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="6"/>
+        <v>178</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="D10" s="7" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5">
+        <v>183</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>188</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="7" t="s">
-        <v>27</v>
+      <c r="D13" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5">
+        <v>195</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5">
+        <v>204</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>192</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="C17" s="6"/>
       <c r="D17" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5">
+        <v>32</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="7" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>27</v>
+        <v>214</v>
       </c>
       <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C20" s="6"/>
+        <v>216</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="D20" s="7" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5">
+        <v>223</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="7" t="s">
-        <v>210</v>
+      <c r="D23" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>214</v>
+        <v>228</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="6"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
     </row>
     <row r="27" spans="3:5">
       <c r="C27"/>
@@ -2922,16 +3046,6 @@
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
-    </row>
-    <row r="29" spans="3:5">
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-    </row>
-    <row r="30" spans="3:5">
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2943,22 +3057,23 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="73.375" style="2" customWidth="1"/>
     <col min="4" max="5" width="27.25" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="17.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:5">
+    <row r="1" ht="22.5" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2974,150 +3089,213 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>233</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>237</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>101</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>246</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>246</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:5">
+        <v>254</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:6">
       <c r="A8" s="8" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="10" spans="4:5">
-      <c r="D10"/>
-      <c r="E10"/>
-    </row>
-    <row r="11" spans="3:5">
+        <v>260</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:6">
+      <c r="A10" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="3:6">
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
-    </row>
-    <row r="12" spans="3:5">
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="3:6">
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
-    </row>
-    <row r="13" spans="4:5">
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="4:6">
       <c r="D13"/>
       <c r="E13"/>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="6:6">
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="6:6">
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="6:6">
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
